--- a/file1_stephan.xlsx
+++ b/file1_stephan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27309"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timme1mj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanrh/Documents/GitHub/geochem_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC295BF3-2677-E845-9B67-32CB389DD531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28520" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28520" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consecutive_rate_test" sheetId="4" r:id="rId1"/>
@@ -85,15 +86,12 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.154</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -102,12 +100,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>time (s)</t>
   </si>
@@ -157,11 +158,17 @@
   <si>
     <t>measured (Mo)</t>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Mo_tot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -589,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,21 +616,23 @@
         <v>12</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -644,7 +653,9 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,7 +677,9 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -688,7 +701,9 @@
       <c r="F4" s="8">
         <v>6.4306919664418634E-7</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
@@ -711,7 +726,9 @@
       <c r="F5" s="7">
         <v>8.6777303030213345E-7</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -733,7 +750,9 @@
       <c r="F6" s="7">
         <v>2.1595759472654238E-6</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -755,7 +774,9 @@
       <c r="F7" s="7">
         <v>3.7395564769773361E-6</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -777,7 +798,9 @@
       <c r="F8" s="7">
         <v>4.2165468838974968E-6</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -799,7 +822,9 @@
       <c r="F9" s="7">
         <v>7.0872873726023398E-6</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,7 +835,7 @@
         <v>1.4243544865588236E-6</v>
       </c>
       <c r="C10" s="7">
-        <v>1.4072130650261573E-5</v>
+        <v>1.4072130650261601E-5</v>
       </c>
       <c r="D10" s="7">
         <v>7.5537882283743001E-6</v>
@@ -821,7 +846,9 @@
       <c r="F10" s="7">
         <v>1.6410827293278954E-5</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -843,7 +870,9 @@
       <c r="F11" s="7">
         <v>1.4546243086272448E-5</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8">
+        <v>5.1279938744597032E-5</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
